--- a/data/trans_orig/P1435-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{426969ED-E1B1-4D1C-AFD0-994B50D109F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDBAAF59-B096-4196-96D3-8BBFFE12577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C77AB021-89DB-4046-8B16-D31B4D945BEA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E953C93-BDE9-43AE-A74D-8183640DDDCC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="189">
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2007 (Tasa respuesta: 50,64%)</t>
   </si>
@@ -95,7 +95,7 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>5,8%</t>
+    <t>6,44%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>97,71%</t>
   </si>
   <si>
-    <t>94,2%</t>
+    <t>93,56%</t>
   </si>
   <si>
     <t>99,31%</t>
@@ -122,7 +122,7 @@
     <t>4,34%</t>
   </si>
   <si>
-    <t>2,93%</t>
+    <t>2,96%</t>
   </si>
   <si>
     <t>6,32%</t>
@@ -134,7 +134,7 @@
     <t>93,68%</t>
   </si>
   <si>
-    <t>97,07%</t>
+    <t>97,04%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -146,19 +146,19 @@
     <t>5,01%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -170,19 +170,19 @@
     <t>12,01%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>87,99%</t>
   </si>
   <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -194,19 +194,19 @@
     <t>9,81%</t>
   </si>
   <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
   </si>
   <si>
     <t>90,19%</t>
   </si>
   <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -215,19 +215,19 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
   </si>
   <si>
     <t>92,3%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -242,19 +242,19 @@
     <t>5,4%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
   </si>
   <si>
     <t>94,6%</t>
   </si>
   <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -263,19 +263,19 @@
     <t>3,03%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -284,76 +284,76 @@
     <t>3,41%</t>
   </si>
   <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>96,13%</t>
   </si>
   <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2015 (Tasa respuesta: 50,81%)</t>
@@ -365,31 +365,31 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>2,24%</t>
+    <t>2,27%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>97,76%</t>
+    <t>97,73%</t>
   </si>
   <si>
     <t>99,66%</t>
@@ -398,76 +398,70 @@
     <t>1,0%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,33%)</t>
@@ -479,19 +473,19 @@
     <t>5,3%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>4,42%</t>
@@ -500,25 +494,25 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>18,69%</t>
+    <t>18,83%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>91,8%</t>
   </si>
   <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -527,82 +521,79 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,83%</t>
+    <t>0,76%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>4,2%</t>
   </si>
   <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>92,95%</t>
   </si>
   <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>7,15%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
   </si>
   <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>3,75%</t>
+    <t>4,04%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>5,11%</t>
+    <t>5,14%</t>
   </si>
   <si>
     <t>7,55%</t>
@@ -611,10 +602,10 @@
     <t>93,06%</t>
   </si>
   <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B35B578-10CE-442A-AA6C-2920FFEC9292}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42413081-5D04-4E00-B88E-34B97655BA11}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2347,7 +2338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8FE7CB-3B0A-4362-BD70-F2035440793F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29B4489-4DCF-4395-AA9A-1CE091A83CDF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3668,7 +3659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CEA811-BBE1-49A3-82D3-46286CCC0733}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFE78D3-D2ED-44DB-A6AC-587EAFC79269}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4448,13 +4439,13 @@
         <v>13059</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -4463,13 +4454,13 @@
         <v>13059</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4488,13 @@
         <v>771952</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>723</v>
@@ -4512,13 +4503,13 @@
         <v>771952</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4637,13 @@
         <v>34233</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -4661,13 +4652,13 @@
         <v>34233</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4686,13 @@
         <v>1009546</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M22" s="7">
         <v>925</v>
@@ -4710,13 +4701,13 @@
         <v>1009546</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4835,13 @@
         <v>66388</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -4859,13 +4850,13 @@
         <v>66388</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4884,13 @@
         <v>3478154</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>3271</v>
@@ -4908,13 +4899,13 @@
         <v>3478154</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,7 +4980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D72712-B5D1-4F9D-BB45-8A20C70B554F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A529CE09-5502-42C2-87D4-3CD0CA9A49AC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5006,7 +4997,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5132,7 +5123,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5147,7 +5138,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5166,13 @@
         <v>6932</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5190,13 +5181,13 @@
         <v>6932</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5215,13 @@
         <v>123801</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M6" s="7">
         <v>237</v>
@@ -5239,13 +5230,13 @@
         <v>123801</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5315,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -5339,13 +5330,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5364,13 @@
         <v>23428</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M9" s="7">
         <v>31</v>
@@ -5388,13 +5379,13 @@
         <v>23428</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5413,13 @@
         <v>569127</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>964</v>
@@ -5437,13 +5428,13 @@
         <v>569127</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5513,13 @@
         <v>3328</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -5537,13 +5528,13 @@
         <v>3328</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,13 +5562,13 @@
         <v>57438</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -5586,13 +5577,13 @@
         <v>57438</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5611,13 @@
         <v>998496</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M14" s="7">
         <v>1438</v>
@@ -5635,13 +5626,13 @@
         <v>998496</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,10 +5714,10 @@
         <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5738,10 +5729,10 @@
         <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5760,13 @@
         <v>59172</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -5784,13 +5775,13 @@
         <v>59172</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5809,13 @@
         <v>811203</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M18" s="7">
         <v>975</v>
@@ -5833,13 +5824,13 @@
         <v>811203</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5909,13 @@
         <v>3595</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5933,13 +5924,13 @@
         <v>3595</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5958,13 @@
         <v>82149</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M21" s="7">
         <v>78</v>
@@ -5982,13 +5973,13 @@
         <v>82149</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,13 +6007,13 @@
         <v>1063962</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M22" s="7">
         <v>1480</v>
@@ -6031,13 +6022,13 @@
         <v>1063962</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6107,13 @@
         <v>36734</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -6131,13 +6122,13 @@
         <v>36734</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,13 +6156,13 @@
         <v>229119</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>255</v>
@@ -6180,13 +6171,13 @@
         <v>229119</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6205,13 @@
         <v>3566588</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>5094</v>
@@ -6229,13 +6220,13 @@
         <v>3566588</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1435-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDBAAF59-B096-4196-96D3-8BBFFE12577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B95F07DF-0F7D-4A6A-B7DB-B3B57F29E354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E953C93-BDE9-43AE-A74D-8183640DDDCC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AED13A23-C855-4CAF-9530-952BF3531C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="187">
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2007 (Tasa respuesta: 50,64%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida</t>
@@ -113,7 +113,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,34%</t>
@@ -122,22 +122,22 @@
     <t>4,34%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>95,66%</t>
   </si>
   <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -146,22 +146,22 @@
     <t>5,01%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -170,19 +170,19 @@
     <t>12,01%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
   </si>
   <si>
     <t>87,99%</t>
   </si>
   <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -194,19 +194,19 @@
     <t>9,81%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
   </si>
   <si>
     <t>90,19%</t>
   </si>
   <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -215,330 +215,327 @@
     <t>7,7%</t>
   </si>
   <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2016 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,33%)</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2015 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,33%)</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
     <t>94,26%</t>
   </si>
   <si>
     <t>92,85%</t>
   </si>
   <si>
-    <t>95,51%</t>
-  </si>
-  <si>
     <t>0,78%</t>
   </si>
   <si>
@@ -576,9 +573,6 @@
   </si>
   <si>
     <t>92,54%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
   </si>
   <si>
     <t>94,43%</t>
@@ -1017,7 +1011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42413081-5D04-4E00-B88E-34B97655BA11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A8C331-931E-4DDF-8044-451B8B45BDAB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2338,7 +2332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29B4489-4DCF-4395-AA9A-1CE091A83CDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6643B0AE-65EC-46E2-B809-6A682BB742AF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3659,7 +3653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFE78D3-D2ED-44DB-A6AC-587EAFC79269}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BFE9E1-647F-4A17-B87D-4C55ADC0F4CE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4046,10 +4040,10 @@
         <v>113</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -4061,10 +4055,10 @@
         <v>113</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4086,13 @@
         <v>553381</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
         <v>545</v>
@@ -4107,13 +4101,13 @@
         <v>553381</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4235,13 @@
         <v>10409</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4256,13 +4250,13 @@
         <v>10409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4284,13 @@
         <v>1032504</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>966</v>
@@ -4305,13 +4299,13 @@
         <v>1032504</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,7 +4390,7 @@
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4411,7 +4405,7 @@
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4433,13 @@
         <v>13059</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -4454,13 +4448,13 @@
         <v>13059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4482,13 @@
         <v>771952</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>723</v>
@@ -4503,13 +4497,13 @@
         <v>771952</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4631,13 @@
         <v>34233</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -4652,13 +4646,13 @@
         <v>34233</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4680,13 @@
         <v>1009546</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="M22" s="7">
         <v>925</v>
@@ -4701,13 +4695,13 @@
         <v>1009546</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4829,13 @@
         <v>66388</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -4850,13 +4844,13 @@
         <v>66388</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,10 +4881,10 @@
         <v>138</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M26" s="7">
         <v>3271</v>
@@ -4902,10 +4896,10 @@
         <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,7 +4974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A529CE09-5502-42C2-87D4-3CD0CA9A49AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174E2C2B-A1CA-4FAA-84C4-673ECA43F698}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4997,7 +4991,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5123,7 +5117,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5138,7 +5132,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5160,13 @@
         <v>6932</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5181,13 +5175,13 @@
         <v>6932</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5209,13 @@
         <v>123801</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M6" s="7">
         <v>237</v>
@@ -5230,13 +5224,13 @@
         <v>123801</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5309,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -5330,13 +5324,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5358,13 @@
         <v>23428</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M9" s="7">
         <v>31</v>
@@ -5379,13 +5373,13 @@
         <v>23428</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5407,13 @@
         <v>569127</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>964</v>
@@ -5428,13 +5422,13 @@
         <v>569127</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5507,13 @@
         <v>3328</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -5528,13 +5522,13 @@
         <v>3328</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5556,13 @@
         <v>57438</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -5577,13 +5571,13 @@
         <v>57438</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,7 +5611,7 @@
         <v>164</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="M14" s="7">
         <v>1438</v>
@@ -5632,7 +5626,7 @@
         <v>164</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,10 +5708,10 @@
         <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5729,10 +5723,10 @@
         <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5754,13 @@
         <v>59172</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -5775,13 +5769,13 @@
         <v>59172</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5803,13 @@
         <v>811203</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M18" s="7">
         <v>975</v>
@@ -5824,13 +5818,13 @@
         <v>811203</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,13 +5903,13 @@
         <v>3595</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5924,13 +5918,13 @@
         <v>3595</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5952,13 @@
         <v>82149</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M21" s="7">
         <v>78</v>
@@ -5973,13 +5967,13 @@
         <v>82149</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,13 +6001,13 @@
         <v>1063962</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M22" s="7">
         <v>1480</v>
@@ -6022,13 +6016,13 @@
         <v>1063962</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6101,13 @@
         <v>36734</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -6122,13 +6116,13 @@
         <v>36734</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6156,13 +6150,13 @@
         <v>229119</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>255</v>
@@ -6171,13 +6165,13 @@
         <v>229119</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6199,13 @@
         <v>3566588</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>5094</v>
@@ -6220,13 +6214,13 @@
         <v>3566588</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1435-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B95F07DF-0F7D-4A6A-B7DB-B3B57F29E354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACDE45AB-6327-4229-AF44-D9A30350B63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AED13A23-C855-4CAF-9530-952BF3531C9D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC5DB491-2FCF-4351-9A98-2561CE75BE0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="164">
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2007 (Tasa respuesta: 50,64%)</t>
   </si>
@@ -71,31 +71,19 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>No recogida</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t>2,29%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>6,44%</t>
+    <t>5,8%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +92,7 @@
     <t>97,71%</t>
   </si>
   <si>
-    <t>93,56%</t>
+    <t>94,2%</t>
   </si>
   <si>
     <t>99,31%</t>
@@ -116,292 +104,262 @@
     <t>2-10.000 hab</t>
   </si>
   <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de dolor menstrual en 2016 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de dolor menstrual en 2016 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>2,24%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>0,54%</t>
+    <t>0,53%</t>
   </si>
   <si>
     <t>1,76%</t>
@@ -413,40 +371,43 @@
     <t>98,24%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>99,47%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>4,49%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>95,51%</t>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>1,87%</t>
@@ -455,151 +416,121 @@
     <t>1,46%</t>
   </si>
   <si>
+    <t>2,37%</t>
+  </si>
+  <si>
     <t>98,13%</t>
   </si>
   <si>
+    <t>97,63%</t>
+  </si>
+  <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,33%)</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,18%)</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +942,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A8C331-931E-4DDF-8044-451B8B45BDAB}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904A4352-2156-4319-8CC6-3997DC28BAA1}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1142,10 +1073,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2583</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -1157,10 +1088,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2583</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -1191,10 +1122,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="I5" s="7">
-        <v>2583</v>
+        <v>110172</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1206,10 +1137,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="N5" s="7">
-        <v>2583</v>
+        <v>110172</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1224,7 +1155,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1240,40 +1171,42 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I6" s="7">
-        <v>110172</v>
+        <v>112755</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="7">
+        <v>128</v>
+      </c>
+      <c r="N6" s="7">
+        <v>112755</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="7">
-        <v>125</v>
-      </c>
-      <c r="N6" s="7">
-        <v>110172</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1289,42 +1222,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>112755</v>
+        <v>24980</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M7" s="7">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="N7" s="7">
-        <v>112755</v>
+        <v>24980</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1340,40 +1271,40 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>550616</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="7">
+        <v>542</v>
+      </c>
+      <c r="N8" s="7">
+        <v>550616</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1389,40 +1320,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>568</v>
       </c>
       <c r="I9" s="7">
-        <v>24980</v>
+        <v>575596</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="7">
+        <v>568</v>
+      </c>
+      <c r="N9" s="7">
+        <v>575596</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="7">
-        <v>26</v>
-      </c>
-      <c r="N9" s="7">
-        <v>24980</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1438,40 +1371,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>542</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7">
-        <v>550616</v>
+        <v>48527</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="M10" s="7">
-        <v>542</v>
+        <v>45</v>
       </c>
       <c r="N10" s="7">
-        <v>550616</v>
+        <v>48527</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1487,42 +1420,40 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>568</v>
+        <v>863</v>
       </c>
       <c r="I11" s="7">
-        <v>575596</v>
+        <v>919866</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
-        <v>568</v>
+        <v>863</v>
       </c>
       <c r="N11" s="7">
-        <v>575596</v>
+        <v>919866</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1538,40 +1469,42 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>908</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>968393</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>908</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>968393</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1587,40 +1520,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="I13" s="7">
-        <v>48527</v>
+        <v>82149</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="7">
+        <v>86</v>
+      </c>
+      <c r="N13" s="7">
+        <v>82149</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="7">
-        <v>45</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48527</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1636,34 +1569,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>863</v>
+        <v>610</v>
       </c>
       <c r="I14" s="7">
-        <v>919866</v>
+        <v>601692</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="7">
+        <v>610</v>
+      </c>
+      <c r="N14" s="7">
+        <v>601692</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="7">
-        <v>863</v>
-      </c>
-      <c r="N14" s="7">
-        <v>919866</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,39 +1618,39 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="N15" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1736,34 +1669,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>101907</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>101907</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,40 +1718,40 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>86</v>
+        <v>898</v>
       </c>
       <c r="I17" s="7">
-        <v>82149</v>
+        <v>936705</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7">
-        <v>86</v>
+        <v>898</v>
       </c>
       <c r="N17" s="7">
-        <v>82149</v>
+        <v>936705</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1834,40 +1767,42 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>610</v>
+        <v>997</v>
       </c>
       <c r="I18" s="7">
-        <v>601692</v>
+        <v>1038612</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>610</v>
+        <v>997</v>
       </c>
       <c r="N18" s="7">
-        <v>601692</v>
+        <v>1038612</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1883,42 +1818,40 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>696</v>
+        <v>259</v>
       </c>
       <c r="I19" s="7">
-        <v>683841</v>
+        <v>260146</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>696</v>
+        <v>259</v>
       </c>
       <c r="N19" s="7">
-        <v>683841</v>
+        <v>260146</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1934,40 +1867,40 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>3038</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>3119052</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>3038</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>3119052</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -1983,357 +1916,61 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>99</v>
+        <v>3297</v>
       </c>
       <c r="I21" s="7">
-        <v>101907</v>
+        <v>3379198</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>99</v>
+        <v>3297</v>
       </c>
       <c r="N21" s="7">
-        <v>101907</v>
+        <v>3379198</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="7">
-        <v>898</v>
-      </c>
-      <c r="I22" s="7">
-        <v>936705</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="A22" t="s">
         <v>54</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M22" s="7">
-        <v>898</v>
-      </c>
-      <c r="N22" s="7">
-        <v>936705</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="7">
-        <v>997</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1038612</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="7">
-        <v>997</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1038612</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="7">
-        <v>259</v>
-      </c>
-      <c r="I25" s="7">
-        <v>260146</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M25" s="7">
-        <v>259</v>
-      </c>
-      <c r="N25" s="7">
-        <v>260146</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3038</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3119052</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3038</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3119052</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="7">
-        <v>3297</v>
-      </c>
-      <c r="N27" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6643B0AE-65EC-46E2-B809-6A682BB742AF}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD86E50-A646-4717-9163-3BC63E5B87A0}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2349,7 +1986,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2463,34 +2100,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6042</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>6042</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,40 +2149,40 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="I5" s="7">
-        <v>6042</v>
+        <v>105863</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="N5" s="7">
-        <v>6042</v>
+        <v>105863</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2561,40 +2198,42 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I6" s="7">
-        <v>105863</v>
+        <v>111905</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="N6" s="7">
-        <v>105863</v>
+        <v>111905</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -2610,42 +2249,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>17750</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="M7" s="7">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>111905</v>
+        <v>17750</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2661,40 +2298,40 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>567395</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>567395</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -2710,40 +2347,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>18</v>
+        <v>551</v>
       </c>
       <c r="I9" s="7">
-        <v>17750</v>
+        <v>585145</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>18</v>
+        <v>551</v>
       </c>
       <c r="N9" s="7">
-        <v>17750</v>
+        <v>585145</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -2759,40 +2398,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>533</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>567395</v>
+        <v>35122</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
-        <v>533</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>567395</v>
+        <v>35122</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2808,42 +2447,40 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>904</v>
       </c>
       <c r="I11" s="7">
-        <v>585145</v>
+        <v>993851</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
-        <v>551</v>
+        <v>904</v>
       </c>
       <c r="N11" s="7">
-        <v>585145</v>
+        <v>993851</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -2859,40 +2496,42 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>1028973</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>1028973</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -2908,40 +2547,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>35122</v>
+        <v>42323</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N13" s="7">
-        <v>35122</v>
+        <v>42323</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2957,34 +2596,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>904</v>
+        <v>664</v>
       </c>
       <c r="I14" s="7">
-        <v>993851</v>
+        <v>734851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>904</v>
+        <v>664</v>
       </c>
       <c r="N14" s="7">
-        <v>993851</v>
+        <v>734851</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,39 +2645,39 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I15" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="N15" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3057,34 +2696,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>36171</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>36171</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,40 +2745,40 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>41</v>
+        <v>968</v>
       </c>
       <c r="I17" s="7">
-        <v>42323</v>
+        <v>1015730</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
-        <v>41</v>
+        <v>968</v>
       </c>
       <c r="N17" s="7">
-        <v>42323</v>
+        <v>1015730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -3155,40 +2794,42 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>664</v>
+        <v>1003</v>
       </c>
       <c r="I18" s="7">
-        <v>734851</v>
+        <v>1051901</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>664</v>
+        <v>1003</v>
       </c>
       <c r="N18" s="7">
-        <v>734851</v>
+        <v>1051901</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -3204,42 +2845,40 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>705</v>
+        <v>133</v>
       </c>
       <c r="I19" s="7">
-        <v>777174</v>
+        <v>137409</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
-        <v>705</v>
+        <v>133</v>
       </c>
       <c r="N19" s="7">
-        <v>777174</v>
+        <v>137409</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -3255,40 +2894,40 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>3163</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>3417689</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>3163</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>3417689</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -3304,357 +2943,61 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>35</v>
+        <v>3296</v>
       </c>
       <c r="I21" s="7">
-        <v>36171</v>
+        <v>3555098</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>35</v>
+        <v>3296</v>
       </c>
       <c r="N21" s="7">
-        <v>36171</v>
+        <v>3555098</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="7">
-        <v>968</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1015730</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M22" s="7">
-        <v>968</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1015730</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1003</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1051901</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1003</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1051901</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="7">
-        <v>133</v>
-      </c>
-      <c r="I25" s="7">
-        <v>137409</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M25" s="7">
-        <v>133</v>
-      </c>
-      <c r="N25" s="7">
-        <v>137409</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3163</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3417689</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3163</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3417689</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="7">
-        <v>3296</v>
-      </c>
-      <c r="N27" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>63</v>
+      <c r="A22" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BFE9E1-647F-4A17-B87D-4C55ADC0F4CE}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3F8384-B8E8-4ECA-9E4B-BA1CE8E34016}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3670,7 +3013,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3784,34 +3127,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2589</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2589</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,40 +3176,40 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="I5" s="7">
-        <v>2589</v>
+        <v>110771</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="N5" s="7">
-        <v>2589</v>
+        <v>110771</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -3882,40 +3225,42 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I6" s="7">
-        <v>110771</v>
+        <v>113360</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="N6" s="7">
-        <v>110771</v>
+        <v>113360</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -3931,42 +3276,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>6098</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>113360</v>
+        <v>6098</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3982,40 +3325,40 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>553381</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>553381</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -4031,40 +3374,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>6</v>
+        <v>551</v>
       </c>
       <c r="I9" s="7">
-        <v>6098</v>
+        <v>559479</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>6</v>
+        <v>551</v>
       </c>
       <c r="N9" s="7">
-        <v>6098</v>
+        <v>559479</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -4080,40 +3425,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>545</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>553381</v>
+        <v>10409</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="M10" s="7">
-        <v>545</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>553381</v>
+        <v>10409</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -4129,42 +3474,40 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>966</v>
       </c>
       <c r="I11" s="7">
-        <v>559479</v>
+        <v>1032504</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="M11" s="7">
-        <v>551</v>
+        <v>966</v>
       </c>
       <c r="N11" s="7">
-        <v>559479</v>
+        <v>1032504</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -4180,40 +3523,42 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>1042913</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>1042913</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -4229,40 +3574,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>10409</v>
+        <v>13059</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>10409</v>
+        <v>13059</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4278,34 +3623,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>966</v>
+        <v>723</v>
       </c>
       <c r="I14" s="7">
-        <v>1032504</v>
+        <v>771952</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
-        <v>966</v>
+        <v>723</v>
       </c>
       <c r="N14" s="7">
-        <v>1032504</v>
+        <v>771952</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,39 +3672,39 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I15" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="N15" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4378,34 +3723,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>34233</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>34233</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,40 +3772,40 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>925</v>
       </c>
       <c r="I17" s="7">
-        <v>13059</v>
+        <v>1009546</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>925</v>
       </c>
       <c r="N17" s="7">
-        <v>13059</v>
+        <v>1009546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -4476,40 +3821,42 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>723</v>
+        <v>959</v>
       </c>
       <c r="I18" s="7">
-        <v>771952</v>
+        <v>1043779</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>723</v>
+        <v>959</v>
       </c>
       <c r="N18" s="7">
-        <v>771952</v>
+        <v>1043779</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -4525,42 +3872,40 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>736</v>
+        <v>67</v>
       </c>
       <c r="I19" s="7">
-        <v>785011</v>
+        <v>66388</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
-        <v>736</v>
+        <v>67</v>
       </c>
       <c r="N19" s="7">
-        <v>785011</v>
+        <v>66388</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4576,40 +3921,40 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>3271</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>3478154</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>3271</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>3478154</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -4625,357 +3970,61 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>34</v>
+        <v>3338</v>
       </c>
       <c r="I21" s="7">
-        <v>34233</v>
+        <v>3544542</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>34</v>
+        <v>3338</v>
       </c>
       <c r="N21" s="7">
-        <v>34233</v>
+        <v>3544542</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="7">
-        <v>925</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1009546</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" s="7">
-        <v>925</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1009546</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="7">
-        <v>959</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1043779</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="7">
-        <v>959</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1043779</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="7">
-        <v>67</v>
-      </c>
-      <c r="I25" s="7">
-        <v>66388</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M25" s="7">
-        <v>67</v>
-      </c>
-      <c r="N25" s="7">
-        <v>66388</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3271</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3478154</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3271</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3478154</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="7">
-        <v>3338</v>
-      </c>
-      <c r="N27" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>63</v>
+      <c r="A22" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174E2C2B-A1CA-4FAA-84C4-673ECA43F698}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D4DBD4-6FD1-4FD2-8BFE-CE4B653A6098}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4991,7 +4040,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5105,34 +4154,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6932</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>6932</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,40 +4203,40 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="I5" s="7">
-        <v>6932</v>
+        <v>123801</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="N5" s="7">
-        <v>6932</v>
+        <v>123801</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -5203,40 +4252,42 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="I6" s="7">
-        <v>123801</v>
+        <v>130733</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="N6" s="7">
-        <v>123801</v>
+        <v>130733</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -5252,42 +4303,40 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>23428</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="N7" s="7">
-        <v>130733</v>
+        <v>23428</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -5303,40 +4352,40 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>964</v>
       </c>
       <c r="I8" s="7">
-        <v>27412</v>
+        <v>569127</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>964</v>
       </c>
       <c r="N8" s="7">
-        <v>27412</v>
+        <v>569127</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -5352,40 +4401,42 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>31</v>
+        <v>995</v>
       </c>
       <c r="I9" s="7">
-        <v>23428</v>
+        <v>592555</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>31</v>
+        <v>995</v>
       </c>
       <c r="N9" s="7">
-        <v>23428</v>
+        <v>592555</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -5401,40 +4452,40 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>964</v>
+        <v>74</v>
       </c>
       <c r="I10" s="7">
-        <v>569127</v>
+        <v>57438</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
-        <v>964</v>
+        <v>74</v>
       </c>
       <c r="N10" s="7">
-        <v>569127</v>
+        <v>57438</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -5450,42 +4501,40 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>998</v>
+        <v>1438</v>
       </c>
       <c r="I11" s="7">
-        <v>619967</v>
+        <v>998496</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
-        <v>998</v>
+        <v>1438</v>
       </c>
       <c r="N11" s="7">
-        <v>619967</v>
+        <v>998496</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -5501,40 +4550,42 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>1512</v>
       </c>
       <c r="I12" s="7">
-        <v>3328</v>
+        <v>1055934</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
+        <v>1512</v>
       </c>
       <c r="N12" s="7">
-        <v>3328</v>
+        <v>1055934</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -5550,40 +4601,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I13" s="7">
-        <v>57438</v>
+        <v>59172</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N13" s="7">
-        <v>57438</v>
+        <v>59172</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -5599,34 +4650,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>1438</v>
+        <v>975</v>
       </c>
       <c r="I14" s="7">
-        <v>998496</v>
+        <v>811203</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>1438</v>
+        <v>975</v>
       </c>
       <c r="N14" s="7">
-        <v>998496</v>
+        <v>811203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,39 +4699,39 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>1516</v>
+        <v>1041</v>
       </c>
       <c r="I15" s="7">
-        <v>1059262</v>
+        <v>870375</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>1516</v>
+        <v>1041</v>
       </c>
       <c r="N15" s="7">
-        <v>1059262</v>
+        <v>870375</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5699,34 +4750,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="I16" s="7">
-        <v>2399</v>
+        <v>82149</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="N16" s="7">
-        <v>2399</v>
+        <v>82149</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,40 +4799,40 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>66</v>
+        <v>1480</v>
       </c>
       <c r="I17" s="7">
-        <v>59172</v>
+        <v>1063962</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
-        <v>66</v>
+        <v>1480</v>
       </c>
       <c r="N17" s="7">
-        <v>59172</v>
+        <v>1063962</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -5797,40 +4848,42 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>975</v>
+        <v>1558</v>
       </c>
       <c r="I18" s="7">
-        <v>811203</v>
+        <v>1146111</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>975</v>
+        <v>1558</v>
       </c>
       <c r="N18" s="7">
-        <v>811203</v>
+        <v>1146111</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -5846,42 +4899,40 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>1044</v>
+        <v>255</v>
       </c>
       <c r="I19" s="7">
-        <v>872774</v>
+        <v>229119</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="M19" s="7">
-        <v>1044</v>
+        <v>255</v>
       </c>
       <c r="N19" s="7">
-        <v>872774</v>
+        <v>229119</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5897,40 +4948,40 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>5094</v>
       </c>
       <c r="I20" s="7">
-        <v>3595</v>
+        <v>3566589</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>5094</v>
       </c>
       <c r="N20" s="7">
-        <v>3595</v>
+        <v>3566589</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -5946,349 +4997,53 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>78</v>
+        <v>5349</v>
       </c>
       <c r="I21" s="7">
-        <v>82149</v>
+        <v>3795708</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>78</v>
+        <v>5349</v>
       </c>
       <c r="N21" s="7">
-        <v>82149</v>
+        <v>3795708</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1480</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1063962</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1480</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1063962</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1561</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1149706</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1561</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1149706</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="7">
-        <v>13</v>
-      </c>
-      <c r="I24" s="7">
-        <v>36734</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M24" s="7">
-        <v>13</v>
-      </c>
-      <c r="N24" s="7">
-        <v>36734</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="7">
-        <v>255</v>
-      </c>
-      <c r="I25" s="7">
-        <v>229119</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M25" s="7">
-        <v>255</v>
-      </c>
-      <c r="N25" s="7">
-        <v>229119</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5094</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3566588</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M26" s="7">
-        <v>5094</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3566588</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5362</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3832441</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="7">
-        <v>5362</v>
-      </c>
-      <c r="N27" s="7">
-        <v>3832441</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>63</v>
+      <c r="A22" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1435-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1435-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACDE45AB-6327-4229-AF44-D9A30350B63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E44085C-C9C4-4B14-A518-86DEAEEB28A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC5DB491-2FCF-4351-9A98-2561CE75BE0E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{88473E54-5CBC-41F1-9806-260BE166FE7D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="137">
   <si>
     <t>Población con diagnóstico de dolor menstrual en 2007 (Tasa respuesta: 50,64%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,51 +77,30 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -143,7 +122,7 @@
     <t>96,3%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>12,01%</t>
@@ -209,54 +188,30 @@
     <t>Población con diagnóstico de dolor menstrual en 2012 (Tasa respuesta: 50,65%)</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
     <t>3,41%</t>
   </si>
   <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
     <t>2,41%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>96,59%</t>
-  </si>
-  <si>
     <t>95,35%</t>
   </si>
   <si>
@@ -320,40 +275,22 @@
     <t>Población con diagnóstico de dolor menstrual en 2016 (Tasa respuesta: 50,81%)</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -395,9 +332,6 @@
     <t>3,28%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
     <t>4,55%</t>
   </si>
   <si>
@@ -407,9 +341,6 @@
     <t>95,45%</t>
   </si>
   <si>
-    <t>97,75%</t>
-  </si>
-  <si>
     <t>1,87%</t>
   </si>
   <si>
@@ -431,106 +362,94 @@
     <t>Población con diagnóstico de dolor menstrual en 2023 (Tasa respuesta: 61,18%)</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
 </sst>
 </file>
@@ -942,8 +861,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904A4352-2156-4319-8CC6-3997DC28BAA1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5FBE09-961D-4A08-89D3-F90D8BA16D36}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1073,10 +992,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>2583</v>
+        <v>27563</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -1088,10 +1007,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>2583</v>
+        <v>27563</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -1122,10 +1041,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>125</v>
+        <v>667</v>
       </c>
       <c r="I5" s="7">
-        <v>110172</v>
+        <v>660788</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1137,10 +1056,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>125</v>
+        <v>667</v>
       </c>
       <c r="N5" s="7">
-        <v>110172</v>
+        <v>660788</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1171,10 +1090,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1186,10 +1105,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="N6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1222,10 +1141,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I7" s="7">
-        <v>24980</v>
+        <v>48527</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>21</v>
@@ -1237,10 +1156,10 @@
         <v>23</v>
       </c>
       <c r="M7" s="7">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N7" s="7">
-        <v>24980</v>
+        <v>48527</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>21</v>
@@ -1271,10 +1190,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>542</v>
+        <v>863</v>
       </c>
       <c r="I8" s="7">
-        <v>550616</v>
+        <v>919866</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>24</v>
@@ -1286,10 +1205,10 @@
         <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>542</v>
+        <v>863</v>
       </c>
       <c r="N8" s="7">
-        <v>550616</v>
+        <v>919866</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -1320,10 +1239,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1335,10 +1254,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="N9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1371,10 +1290,10 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="I10" s="7">
-        <v>48527</v>
+        <v>82149</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>28</v>
@@ -1386,10 +1305,10 @@
         <v>30</v>
       </c>
       <c r="M10" s="7">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="N10" s="7">
-        <v>48527</v>
+        <v>82149</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>28</v>
@@ -1420,10 +1339,10 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>863</v>
+        <v>610</v>
       </c>
       <c r="I11" s="7">
-        <v>919866</v>
+        <v>601692</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>31</v>
@@ -1435,10 +1354,10 @@
         <v>33</v>
       </c>
       <c r="M11" s="7">
-        <v>863</v>
+        <v>610</v>
       </c>
       <c r="N11" s="7">
-        <v>919866</v>
+        <v>601692</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>31</v>
@@ -1469,10 +1388,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1484,10 +1403,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="N12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1520,10 +1439,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I13" s="7">
-        <v>82149</v>
+        <v>101907</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>35</v>
@@ -1535,10 +1454,10 @@
         <v>37</v>
       </c>
       <c r="M13" s="7">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="N13" s="7">
-        <v>82149</v>
+        <v>101907</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>35</v>
@@ -1569,10 +1488,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>610</v>
+        <v>898</v>
       </c>
       <c r="I14" s="7">
-        <v>601692</v>
+        <v>936705</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>38</v>
@@ -1584,10 +1503,10 @@
         <v>40</v>
       </c>
       <c r="M14" s="7">
-        <v>610</v>
+        <v>898</v>
       </c>
       <c r="N14" s="7">
-        <v>601692</v>
+        <v>936705</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>38</v>
@@ -1618,10 +1537,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1633,10 +1552,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="N15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1650,7 +1569,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1669,34 +1588,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>99</v>
+        <v>259</v>
       </c>
       <c r="I16" s="7">
-        <v>101907</v>
+        <v>260146</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="M16" s="7">
-        <v>99</v>
+        <v>259</v>
       </c>
       <c r="N16" s="7">
-        <v>101907</v>
+        <v>260146</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,34 +1637,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>898</v>
+        <v>3038</v>
       </c>
       <c r="I17" s="7">
-        <v>936705</v>
+        <v>3119051</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="M17" s="7">
-        <v>898</v>
+        <v>3038</v>
       </c>
       <c r="N17" s="7">
-        <v>936705</v>
+        <v>3119051</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,10 +1686,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1782,10 +1701,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="N18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1798,165 +1717,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>259</v>
-      </c>
-      <c r="I19" s="7">
-        <v>260146</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="7">
-        <v>259</v>
-      </c>
-      <c r="N19" s="7">
-        <v>260146</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3038</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3119052</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3038</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3119052</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1969,8 +1738,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD86E50-A646-4717-9163-3BC63E5B87A0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C1083FE-657F-4652-B63C-696679EAB972}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1986,7 +1755,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2100,34 +1869,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>6042</v>
+        <v>23793</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>6042</v>
+        <v>23793</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,34 +1918,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="I5" s="7">
-        <v>105863</v>
+        <v>673257</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M5" s="7">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="N5" s="7">
-        <v>105863</v>
+        <v>673257</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,10 +1967,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2213,10 +1982,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="N6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2249,34 +2018,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>17750</v>
+        <v>35122</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M7" s="7">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N7" s="7">
-        <v>17750</v>
+        <v>35122</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,34 +2067,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>533</v>
+        <v>904</v>
       </c>
       <c r="I8" s="7">
-        <v>567395</v>
+        <v>993851</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="M8" s="7">
-        <v>533</v>
+        <v>904</v>
       </c>
       <c r="N8" s="7">
-        <v>567395</v>
+        <v>993851</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,10 +2116,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2362,10 +2131,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="N9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2398,34 +2167,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>35122</v>
+        <v>42323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N10" s="7">
-        <v>35122</v>
+        <v>42323</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,34 +2216,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>904</v>
+        <v>664</v>
       </c>
       <c r="I11" s="7">
-        <v>993851</v>
+        <v>734851</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>904</v>
+        <v>664</v>
       </c>
       <c r="N11" s="7">
-        <v>993851</v>
+        <v>734851</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,10 +2265,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2511,10 +2280,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="N12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2547,34 +2316,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>42323</v>
+        <v>36171</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N13" s="7">
-        <v>42323</v>
+        <v>36171</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,34 +2365,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>664</v>
+        <v>968</v>
       </c>
       <c r="I14" s="7">
-        <v>734851</v>
+        <v>1015730</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
-        <v>664</v>
+        <v>968</v>
       </c>
       <c r="N14" s="7">
-        <v>734851</v>
+        <v>1015730</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,10 +2414,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2660,10 +2429,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="N15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2677,7 +2446,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2696,34 +2465,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="I16" s="7">
-        <v>36171</v>
+        <v>137409</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="N16" s="7">
-        <v>36171</v>
+        <v>137409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,34 +2514,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>968</v>
+        <v>3163</v>
       </c>
       <c r="I17" s="7">
-        <v>1015730</v>
+        <v>3417689</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
-        <v>968</v>
+        <v>3163</v>
       </c>
       <c r="N17" s="7">
-        <v>1015730</v>
+        <v>3417689</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,10 +2563,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2809,10 +2578,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="N18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2825,165 +2594,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>133</v>
-      </c>
-      <c r="I19" s="7">
-        <v>137409</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M19" s="7">
-        <v>133</v>
-      </c>
-      <c r="N19" s="7">
-        <v>137409</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3163</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3417689</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3163</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3417689</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2996,8 +2615,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3F8384-B8E8-4ECA-9E4B-BA1CE8E34016}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D0CE01-720C-44C6-BA54-4CE26BE4748C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3013,7 +2632,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3127,34 +2746,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>2589</v>
+        <v>8687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>2589</v>
+        <v>8687</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,34 +2795,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>112</v>
+        <v>657</v>
       </c>
       <c r="I5" s="7">
-        <v>110771</v>
+        <v>664152</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="M5" s="7">
-        <v>112</v>
+        <v>657</v>
       </c>
       <c r="N5" s="7">
-        <v>110771</v>
+        <v>664152</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,10 +2844,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3240,10 +2859,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="N6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3276,34 +2895,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>6098</v>
+        <v>10409</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>6098</v>
+        <v>10409</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,34 +2944,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>545</v>
+        <v>966</v>
       </c>
       <c r="I8" s="7">
-        <v>553381</v>
+        <v>1032504</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="M8" s="7">
-        <v>545</v>
+        <v>966</v>
       </c>
       <c r="N8" s="7">
-        <v>553381</v>
+        <v>1032504</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,10 +2993,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3389,10 +3008,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="N9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3425,34 +3044,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>10409</v>
+        <v>13059</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>10409</v>
+        <v>13059</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,34 +3093,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>966</v>
+        <v>723</v>
       </c>
       <c r="I11" s="7">
-        <v>1032504</v>
+        <v>771952</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="M11" s="7">
-        <v>966</v>
+        <v>723</v>
       </c>
       <c r="N11" s="7">
-        <v>1032504</v>
+        <v>771952</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,10 +3142,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3538,10 +3157,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="N12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3574,34 +3193,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>13059</v>
+        <v>34233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>13059</v>
+        <v>34233</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,34 +3242,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>723</v>
+        <v>925</v>
       </c>
       <c r="I14" s="7">
-        <v>771952</v>
+        <v>1009546</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="M14" s="7">
-        <v>723</v>
+        <v>925</v>
       </c>
       <c r="N14" s="7">
-        <v>771952</v>
+        <v>1009546</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,10 +3291,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3687,10 +3306,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="N15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3704,7 +3323,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3723,34 +3342,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I16" s="7">
-        <v>34233</v>
+        <v>66388</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="N16" s="7">
-        <v>34233</v>
+        <v>66388</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,34 +3391,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>925</v>
+        <v>3271</v>
       </c>
       <c r="I17" s="7">
-        <v>1009546</v>
+        <v>3478154</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
-        <v>925</v>
+        <v>3271</v>
       </c>
       <c r="N17" s="7">
-        <v>1009546</v>
+        <v>3478154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,10 +3440,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3836,10 +3455,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="N18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3852,165 +3471,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>67</v>
-      </c>
-      <c r="I19" s="7">
-        <v>66388</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" s="7">
-        <v>67</v>
-      </c>
-      <c r="N19" s="7">
-        <v>66388</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3271</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3478154</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3271</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3478154</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4023,8 +3492,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D4DBD4-6FD1-4FD2-8BFE-CE4B653A6098}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7312C10D-9ACC-443D-BD60-E19583E6DBF2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4040,7 +3509,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4154,34 +3623,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>6932</v>
+        <v>28625</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>6932</v>
+        <v>28625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,34 +3672,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>237</v>
+        <v>1201</v>
       </c>
       <c r="I5" s="7">
-        <v>123801</v>
+        <v>646745</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="M5" s="7">
-        <v>237</v>
+        <v>1201</v>
       </c>
       <c r="N5" s="7">
-        <v>123801</v>
+        <v>646745</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,10 +3721,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4267,10 +3736,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="N6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4303,34 +3772,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="I7" s="7">
-        <v>23428</v>
+        <v>52962</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="M7" s="7">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="N7" s="7">
-        <v>23428</v>
+        <v>52962</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,34 +3821,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>964</v>
+        <v>1438</v>
       </c>
       <c r="I8" s="7">
-        <v>569127</v>
+        <v>901772</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
-        <v>964</v>
+        <v>1438</v>
       </c>
       <c r="N8" s="7">
-        <v>569127</v>
+        <v>901772</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,10 +3870,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1512</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>954734</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4416,10 +3885,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>995</v>
+        <v>1512</v>
       </c>
       <c r="N9" s="7">
-        <v>592555</v>
+        <v>954734</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4452,34 +3921,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I10" s="7">
-        <v>57438</v>
+        <v>54074</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="M10" s="7">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="N10" s="7">
-        <v>57438</v>
+        <v>54074</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,34 +3970,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1438</v>
+        <v>975</v>
       </c>
       <c r="I11" s="7">
-        <v>998496</v>
+        <v>875602</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="M11" s="7">
-        <v>1438</v>
+        <v>975</v>
       </c>
       <c r="N11" s="7">
-        <v>998496</v>
+        <v>875602</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,10 +4019,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1512</v>
+        <v>1041</v>
       </c>
       <c r="I12" s="7">
-        <v>1055934</v>
+        <v>929676</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4565,10 +4034,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1512</v>
+        <v>1041</v>
       </c>
       <c r="N12" s="7">
-        <v>1055934</v>
+        <v>929676</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4601,34 +4070,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I13" s="7">
-        <v>59172</v>
+        <v>131165</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="N13" s="7">
-        <v>59172</v>
+        <v>131165</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,34 +4119,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>975</v>
+        <v>1480</v>
       </c>
       <c r="I14" s="7">
-        <v>811203</v>
+        <v>959958</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="M14" s="7">
-        <v>975</v>
+        <v>1480</v>
       </c>
       <c r="N14" s="7">
-        <v>811203</v>
+        <v>959958</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,10 +4168,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>1041</v>
+        <v>1558</v>
       </c>
       <c r="I15" s="7">
-        <v>870375</v>
+        <v>1091123</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4714,10 +4183,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>1041</v>
+        <v>1558</v>
       </c>
       <c r="N15" s="7">
-        <v>870375</v>
+        <v>1091123</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4731,7 +4200,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4750,34 +4219,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="I16" s="7">
-        <v>82149</v>
+        <v>266826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="M16" s="7">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="N16" s="7">
-        <v>82149</v>
+        <v>266826</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,34 +4268,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>1480</v>
+        <v>5094</v>
       </c>
       <c r="I17" s="7">
-        <v>1063962</v>
+        <v>3384078</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="M17" s="7">
-        <v>1480</v>
+        <v>5094</v>
       </c>
       <c r="N17" s="7">
-        <v>1063962</v>
+        <v>3384078</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,10 +4317,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>1558</v>
+        <v>5349</v>
       </c>
       <c r="I18" s="7">
-        <v>1146111</v>
+        <v>3650904</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4863,10 +4332,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>1558</v>
+        <v>5349</v>
       </c>
       <c r="N18" s="7">
-        <v>1146111</v>
+        <v>3650904</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4879,165 +4348,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>255</v>
-      </c>
-      <c r="I19" s="7">
-        <v>229119</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M19" s="7">
-        <v>255</v>
-      </c>
-      <c r="N19" s="7">
-        <v>229119</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5094</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3566589</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5094</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3566589</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5349</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3795708</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5349</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3795708</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
